--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.923</v>
+        <v>-0.258</v>
       </c>
       <c r="D4" t="n">
-        <v>-7200</v>
+        <v>-1328.57</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.143</v>
+        <v>-0.041</v>
       </c>
       <c r="D5" t="n">
-        <v>-721.74</v>
+        <v>-270.83</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.866</v>
       </c>
       <c r="C6" t="n">
-        <v>6.117</v>
+        <v>3.683</v>
       </c>
       <c r="D6" t="n">
-        <v>94.68000000000001</v>
+        <v>28.51</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.375</v>
+        <v>0.219</v>
       </c>
       <c r="D7" t="n">
-        <v>89.39</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>16.722</v>
+        <v>14.575</v>
       </c>
       <c r="D8" t="n">
-        <v>52.31</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.195</v>
       </c>
       <c r="C9" t="n">
-        <v>4.674</v>
+        <v>2.746</v>
       </c>
       <c r="D9" t="n">
-        <v>112.36</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>14.834</v>
       </c>
       <c r="C10" t="n">
-        <v>56.714</v>
+        <v>27.576</v>
       </c>
       <c r="D10" t="n">
-        <v>214.33</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.053</v>
       </c>
       <c r="C11" t="n">
-        <v>0.299</v>
+        <v>0.114</v>
       </c>
       <c r="D11" t="n">
-        <v>382.26</v>
+        <v>115.09</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>-0.011</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.361</v>
+        <v>-0.879</v>
       </c>
       <c r="D12" t="n">
-        <v>3321.74</v>
+        <v>7890.91</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.851</v>
       </c>
       <c r="C13" t="n">
-        <v>7.531</v>
+        <v>5.251</v>
       </c>
       <c r="D13" t="n">
-        <v>77.28</v>
+        <v>36.35</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.258439987897873</v>
+        <v>2.870965321858724</v>
       </c>
       <c r="C4" t="n">
-        <v>3.698867991566658</v>
+        <v>4.027257885251727</v>
       </c>
       <c r="D4" t="n">
-        <v>13.52</v>
+        <v>40.28</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8374001984866287</v>
+        <v>0.1491216088904056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3253348699595224</v>
+        <v>0.617087790200132</v>
       </c>
       <c r="G4" t="n">
-        <v>-61.15</v>
+        <v>313.82</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.323703007222314</v>
+        <v>7.332573603080462</v>
       </c>
       <c r="C6" t="n">
-        <v>4.885267164725703</v>
+        <v>5.972363453480138</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.24</v>
+        <v>-18.55</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6770039230409424</v>
+        <v>2.127051598109108</v>
       </c>
       <c r="F6" t="n">
-        <v>1.423792944232598</v>
+        <v>0.9129751644812887</v>
       </c>
       <c r="G6" t="n">
-        <v>110.31</v>
+        <v>-57.08</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.021</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.258</v>
+        <v>-0.044</v>
       </c>
       <c r="D4" t="n">
-        <v>-1328.57</v>
+        <v>46.67</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.041</v>
+        <v>-0.027</v>
       </c>
       <c r="D5" t="n">
-        <v>-270.83</v>
+        <v>-242.11</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.866</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>3.683</v>
+        <v>2.795</v>
       </c>
       <c r="D6" t="n">
-        <v>28.51</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.192</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.219</v>
+        <v>0.208</v>
       </c>
       <c r="D7" t="n">
-        <v>14.06</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>14.575</v>
+        <v>10.498</v>
       </c>
       <c r="D8" t="n">
-        <v>32.75</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.195</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.746</v>
+        <v>2.526</v>
       </c>
       <c r="D9" t="n">
-        <v>25.1</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.834</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>27.576</v>
+        <v>12.188</v>
       </c>
       <c r="D10" t="n">
-        <v>85.90000000000001</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.114</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="n">
-        <v>115.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.879</v>
+        <v>-0.031</v>
       </c>
       <c r="D12" t="n">
-        <v>7890.91</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.851</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>5.251</v>
+        <v>3.491</v>
       </c>
       <c r="D13" t="n">
-        <v>36.35</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.870965321858724</v>
+        <v>3.007139819008963</v>
       </c>
       <c r="C4" t="n">
-        <v>4.027257885251727</v>
+        <v>3.954629353114537</v>
       </c>
       <c r="D4" t="n">
-        <v>40.28</v>
+        <v>31.51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1491216088904056</v>
+        <v>0.3478481107933912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.617087790200132</v>
+        <v>0.9003595056567313</v>
       </c>
       <c r="G4" t="n">
-        <v>313.82</v>
+        <v>158.84</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.2</v>
+        <v>-28.17</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.332573603080462</v>
+        <v>3.512541558851827</v>
       </c>
       <c r="C6" t="n">
-        <v>5.972363453480138</v>
+        <v>2.453622497797761</v>
       </c>
       <c r="D6" t="n">
-        <v>-18.55</v>
+        <v>-30.15</v>
       </c>
       <c r="E6" t="n">
-        <v>2.127051598109108</v>
+        <v>1.231547594210128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9129751644812887</v>
+        <v>0.4057588439386743</v>
       </c>
       <c r="G6" t="n">
-        <v>-57.08</v>
+        <v>-67.05</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-dynamic_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
